--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C731A23-554B-4909-8DC6-F51790AB1CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF4C1AD-9701-453E-BAE8-28D322DE5792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6BA8433-60A4-4B0B-9C2B-004CCC3697F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D6BA8433-60A4-4B0B-9C2B-004CCC3697F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -86,12 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C3D63E-7A51-4F22-B31F-AA4D1F0FC8A1}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,362 +561,378 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>270</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>97.234238361899173</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>378.75</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>97.742214790565001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>487.5</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>97.140435126743967</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>596.25</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>95.428899370436028</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>705</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>92.607607521641228</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>813.75</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>88.676559580359537</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>922.5</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>83.635755546590971</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>1031.25</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>77.485195420335529</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>1140</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>70.224879201593211</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>240</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>76.766245904208475</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>335</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>78.099932831783264</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>430</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>78.26374558239408</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>525</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>77.257684156040895</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>620</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>75.081748552723724</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>715</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>71.735938772442566</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>810</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>67.220254815197421</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>905</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>61.534696680988276</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>1000</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>54.679264369815144</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>200</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>56.928463295806537</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>283.75</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>57.851760627545474</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>367.5</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>57.964375264073439</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>451.25</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>57.266307205390405</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>535</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>55.757556451496399</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>618.75</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>53.438123002391421</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>702.5</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>50.308006858075466</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>786.25</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>46.367208018548524</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>870</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>41.615726483810597</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>160</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>43.794389340743166</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>233.75</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>43.816660018555432</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>307.5</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>43.399328827449068</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>381.25</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>42.542395767424068</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>455</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>41.245860838480432</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>528.75</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>39.509724040618153</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>602.5</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>37.333985373837244</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>676.25</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>34.718644838137699</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>750</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>31.663702433519521</v>
       </c>
     </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>140</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>30.13663723622134</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>200</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>29.694031459502792</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>260</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>29.088739222239496</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>320</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>28.320760524431446</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>380</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>27.390095366078647</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>440</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>26.296743747181093</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>500</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>25.040705667738791</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>560</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>23.621981127751738</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>620</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>22.040570127219929</v>
       </c>
     </row>
